--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2022/Thang10/2.XulyBH/XLBH2210_TechGlobal.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2022/Thang10/2.XulyBH/XLBH2210_TechGlobal.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="4035" windowWidth="10320" windowHeight="4065"/>
+    <workbookView xWindow="-15" yWindow="4035" windowWidth="10320" windowHeight="4065" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="CAM-HL02" sheetId="61" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="603" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="698" uniqueCount="112">
   <si>
     <t>STT</t>
   </si>
@@ -262,6 +262,129 @@
   </si>
   <si>
     <t>SL: 1</t>
+  </si>
+  <si>
+    <t>LE.2.00.---28.200624</t>
+  </si>
+  <si>
+    <t>203.162.121.026,09207</t>
+  </si>
+  <si>
+    <t>Thiết bị lỗi connector nguồn</t>
+  </si>
+  <si>
+    <t>Xử lý lại connector nguồn, nâng cấp FW</t>
+  </si>
+  <si>
+    <t>BT</t>
+  </si>
+  <si>
+    <t>Tùng</t>
+  </si>
+  <si>
+    <t>LE.3.00.---01.210415</t>
+  </si>
+  <si>
+    <t>203.162.121.016,09207</t>
+  </si>
+  <si>
+    <t>203.162.121.025,09207</t>
+  </si>
+  <si>
+    <t>Test lại thiết bị, hạ cấp FW</t>
+  </si>
+  <si>
+    <t>Test lại thiết bị</t>
+  </si>
+  <si>
+    <t>PC+PM</t>
+  </si>
+  <si>
+    <t>NG,NCFW</t>
+  </si>
+  <si>
+    <t>LE.1.00.---01.181005</t>
+  </si>
+  <si>
+    <t>014.225.007.016,09207</t>
+  </si>
+  <si>
+    <t>Thiết bị chập nguồn</t>
+  </si>
+  <si>
+    <t>Thay tụ lọc nguồn, nâng cấp FW</t>
+  </si>
+  <si>
+    <t>Thiết bị mất cấu hình</t>
+  </si>
+  <si>
+    <t>Xử lý lại Flash</t>
+  </si>
+  <si>
+    <t>TG.007S.---01.180405</t>
+  </si>
+  <si>
+    <t>203.162.121.025,09107</t>
+  </si>
+  <si>
+    <t>Thiết bị reset liên tục</t>
+  </si>
+  <si>
+    <t>Xử lý lại main</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TG.007.---15.310517 </t>
+  </si>
+  <si>
+    <t>203.162.121.024,09007</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TG.007.---16.051017 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">TG.007.---15.130417 </t>
+  </si>
+  <si>
+    <t>Thay diode quá áp, nâng cấp FW</t>
+  </si>
+  <si>
+    <t>Xử lý lại khối nguồn, nâng cấp FW</t>
+  </si>
+  <si>
+    <t>Chập nổ main, chập MCU, Module GSM, GPS</t>
+  </si>
+  <si>
+    <t>Không sửa chữa</t>
+  </si>
+  <si>
+    <t>KS</t>
+  </si>
+  <si>
+    <t>Chập nổ khối nguồn</t>
+  </si>
+  <si>
+    <t>Sai baudrate GPS</t>
+  </si>
+  <si>
+    <t>X.4.0.0.00001.221117</t>
+  </si>
+  <si>
+    <t>203.162.121.068,09008</t>
+  </si>
+  <si>
+    <t>X.4.0.0.00002.180125</t>
+  </si>
+  <si>
+    <t>Cấu hình lại baudrate GPS, nâng cấp FW</t>
+  </si>
+  <si>
+    <t>MCH,NCFW</t>
+  </si>
+  <si>
+    <t>B.2.27B</t>
+  </si>
+  <si>
+    <t>203.162.121.025,09004</t>
   </si>
 </sst>
 </file>
@@ -1030,7 +1153,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X115"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView showZeros="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
@@ -5583,7 +5706,7 @@
   <dimension ref="A1:X115"/>
   <sheetViews>
     <sheetView showZeros="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -5808,16 +5931,32 @@
         <v>62</v>
       </c>
       <c r="H6" s="59"/>
-      <c r="I6" s="60"/>
-      <c r="J6" s="61"/>
-      <c r="K6" s="62"/>
+      <c r="I6" s="60" t="s">
+        <v>91</v>
+      </c>
+      <c r="J6" s="61" t="s">
+        <v>92</v>
+      </c>
+      <c r="K6" s="62" t="s">
+        <v>90</v>
+      </c>
       <c r="L6" s="63"/>
-      <c r="M6" s="63"/>
+      <c r="M6" s="63" t="s">
+        <v>93</v>
+      </c>
       <c r="N6" s="61"/>
-      <c r="O6" s="61"/>
-      <c r="P6" s="63"/>
-      <c r="Q6" s="61"/>
-      <c r="R6" s="64"/>
+      <c r="O6" s="61" t="s">
+        <v>75</v>
+      </c>
+      <c r="P6" s="63" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q6" s="61" t="s">
+        <v>18</v>
+      </c>
+      <c r="R6" s="64" t="s">
+        <v>30</v>
+      </c>
       <c r="S6" s="68"/>
       <c r="T6" s="71"/>
       <c r="U6" s="80" t="s">
@@ -6264,7 +6403,7 @@
       </c>
       <c r="V21" s="9">
         <f>COUNTIF($Q$6:$Q$51,"PC")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W21" s="13"/>
     </row>
@@ -6573,7 +6712,7 @@
       </c>
       <c r="V31" s="9">
         <f>COUNTIF($R$6:$R$51,"*LK*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W31" s="13"/>
     </row>
@@ -6765,7 +6904,7 @@
       </c>
       <c r="V37" s="9">
         <f>SUM(V26:V36)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W37" s="13"/>
     </row>
@@ -7858,8 +7997,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X115"/>
   <sheetViews>
-    <sheetView showZeros="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView showZeros="0" tabSelected="1" topLeftCell="I1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -8084,16 +8223,34 @@
         <v>62</v>
       </c>
       <c r="H6" s="59"/>
-      <c r="I6" s="60"/>
-      <c r="J6" s="61"/>
-      <c r="K6" s="62"/>
-      <c r="L6" s="63"/>
-      <c r="M6" s="63"/>
+      <c r="I6" s="60" t="s">
+        <v>106</v>
+      </c>
+      <c r="J6" s="61" t="s">
+        <v>104</v>
+      </c>
+      <c r="K6" s="62" t="s">
+        <v>105</v>
+      </c>
+      <c r="L6" s="63" t="s">
+        <v>107</v>
+      </c>
+      <c r="M6" s="63" t="s">
+        <v>108</v>
+      </c>
       <c r="N6" s="61"/>
-      <c r="O6" s="61"/>
-      <c r="P6" s="63"/>
-      <c r="Q6" s="61"/>
-      <c r="R6" s="64"/>
+      <c r="O6" s="61" t="s">
+        <v>75</v>
+      </c>
+      <c r="P6" s="63" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q6" s="61" t="s">
+        <v>19</v>
+      </c>
+      <c r="R6" s="64" t="s">
+        <v>109</v>
+      </c>
       <c r="S6" s="68"/>
       <c r="T6" s="71"/>
       <c r="U6" s="80" t="s">
@@ -8123,9 +8280,13 @@
         <v>62</v>
       </c>
       <c r="H7" s="59"/>
-      <c r="I7" s="60"/>
+      <c r="I7" s="60" t="s">
+        <v>111</v>
+      </c>
       <c r="J7" s="61"/>
-      <c r="K7" s="62"/>
+      <c r="K7" s="62" t="s">
+        <v>110</v>
+      </c>
       <c r="L7" s="63"/>
       <c r="M7" s="63"/>
       <c r="N7" s="61"/>
@@ -8516,7 +8677,7 @@
       </c>
       <c r="V20" s="9">
         <f>COUNTIF($Q$6:$Q$51,"PM")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W20" s="13"/>
     </row>
@@ -8889,7 +9050,7 @@
       </c>
       <c r="V32" s="9">
         <f>COUNTIF($R$6:$R$51,"*MCH*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W32" s="13"/>
     </row>
@@ -8985,7 +9146,7 @@
       </c>
       <c r="V35" s="9">
         <f>COUNTIF($R$6:$R$51,"*NCFW*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W35" s="13"/>
     </row>
@@ -9049,7 +9210,7 @@
       </c>
       <c r="V37" s="9">
         <f>SUM(V26:V36)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W37" s="13"/>
     </row>
@@ -10142,8 +10303,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X115"/>
   <sheetViews>
-    <sheetView showZeros="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView showZeros="0" topLeftCell="K4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="R7" sqref="R7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -10361,23 +10522,41 @@
         <v>65</v>
       </c>
       <c r="E6" s="57">
-        <v>861693034841535</v>
+        <v>861693034841353</v>
       </c>
       <c r="F6" s="56"/>
       <c r="G6" s="56" t="s">
         <v>62</v>
       </c>
       <c r="H6" s="59"/>
-      <c r="I6" s="60"/>
-      <c r="J6" s="61"/>
-      <c r="K6" s="62"/>
-      <c r="L6" s="63"/>
-      <c r="M6" s="63"/>
+      <c r="I6" s="60" t="s">
+        <v>95</v>
+      </c>
+      <c r="J6" s="61" t="s">
+        <v>86</v>
+      </c>
+      <c r="K6" s="62" t="s">
+        <v>97</v>
+      </c>
+      <c r="L6" s="63" t="s">
+        <v>96</v>
+      </c>
+      <c r="M6" s="63" t="s">
+        <v>98</v>
+      </c>
       <c r="N6" s="61"/>
-      <c r="O6" s="61"/>
-      <c r="P6" s="63"/>
-      <c r="Q6" s="61"/>
-      <c r="R6" s="64"/>
+      <c r="O6" s="61" t="s">
+        <v>75</v>
+      </c>
+      <c r="P6" s="63" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q6" s="61" t="s">
+        <v>82</v>
+      </c>
+      <c r="R6" s="64" t="s">
+        <v>83</v>
+      </c>
       <c r="S6" s="68"/>
       <c r="T6" s="71"/>
       <c r="U6" s="80" t="s">
@@ -10408,15 +10587,27 @@
       </c>
       <c r="H7" s="59"/>
       <c r="I7" s="60"/>
-      <c r="J7" s="61"/>
+      <c r="J7" s="61" t="s">
+        <v>103</v>
+      </c>
       <c r="K7" s="62"/>
       <c r="L7" s="63"/>
-      <c r="M7" s="63"/>
+      <c r="M7" s="63" t="s">
+        <v>101</v>
+      </c>
       <c r="N7" s="61"/>
-      <c r="O7" s="61"/>
-      <c r="P7" s="63"/>
-      <c r="Q7" s="61"/>
-      <c r="R7" s="64"/>
+      <c r="O7" s="61" t="s">
+        <v>102</v>
+      </c>
+      <c r="P7" s="63" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q7" s="61" t="s">
+        <v>18</v>
+      </c>
+      <c r="R7" s="64" t="s">
+        <v>31</v>
+      </c>
       <c r="S7" s="68"/>
       <c r="T7" s="71"/>
       <c r="U7" s="81"/>
@@ -10444,16 +10635,34 @@
         <v>62</v>
       </c>
       <c r="H8" s="59"/>
-      <c r="I8" s="60"/>
-      <c r="J8" s="61"/>
-      <c r="K8" s="62"/>
-      <c r="L8" s="63"/>
-      <c r="M8" s="63"/>
+      <c r="I8" s="60" t="s">
+        <v>95</v>
+      </c>
+      <c r="J8" s="61" t="s">
+        <v>86</v>
+      </c>
+      <c r="K8" s="62" t="s">
+        <v>94</v>
+      </c>
+      <c r="L8" s="63" t="s">
+        <v>96</v>
+      </c>
+      <c r="M8" s="63" t="s">
+        <v>99</v>
+      </c>
       <c r="N8" s="61"/>
-      <c r="O8" s="61"/>
-      <c r="P8" s="63"/>
-      <c r="Q8" s="61"/>
-      <c r="R8" s="64"/>
+      <c r="O8" s="61" t="s">
+        <v>75</v>
+      </c>
+      <c r="P8" s="63" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q8" s="61" t="s">
+        <v>82</v>
+      </c>
+      <c r="R8" s="64" t="s">
+        <v>83</v>
+      </c>
       <c r="S8" s="68"/>
       <c r="T8" s="71"/>
       <c r="U8" s="81"/>
@@ -10482,15 +10691,27 @@
       </c>
       <c r="H9" s="59"/>
       <c r="I9" s="60"/>
-      <c r="J9" s="61"/>
+      <c r="J9" s="61" t="s">
+        <v>100</v>
+      </c>
       <c r="K9" s="61"/>
       <c r="L9" s="63"/>
-      <c r="M9" s="63"/>
+      <c r="M9" s="63" t="s">
+        <v>101</v>
+      </c>
       <c r="N9" s="61"/>
-      <c r="O9" s="61"/>
-      <c r="P9" s="63"/>
-      <c r="Q9" s="61"/>
-      <c r="R9" s="64"/>
+      <c r="O9" s="61" t="s">
+        <v>102</v>
+      </c>
+      <c r="P9" s="63" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q9" s="61" t="s">
+        <v>18</v>
+      </c>
+      <c r="R9" s="64" t="s">
+        <v>31</v>
+      </c>
       <c r="S9" s="68"/>
       <c r="T9" s="71"/>
       <c r="U9" s="81"/>
@@ -10848,7 +11069,7 @@
       </c>
       <c r="V21" s="9">
         <f>COUNTIF($Q$6:$Q$51,"PC")</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W21" s="13"/>
     </row>
@@ -10880,7 +11101,7 @@
       </c>
       <c r="V22" s="9">
         <f>COUNTIF($Q$6:$Q$51,"PC+PM")</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W22" s="13"/>
     </row>
@@ -11093,7 +11314,7 @@
       </c>
       <c r="V29" s="9">
         <f>COUNTIF($R$6:$R$51,"*NG*")</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="W29" s="13"/>
     </row>
@@ -11285,7 +11506,7 @@
       </c>
       <c r="V35" s="9">
         <f>COUNTIF($R$6:$R$51,"*NCFW*")</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W35" s="13"/>
     </row>
@@ -11349,7 +11570,7 @@
       </c>
       <c r="V37" s="9">
         <f>SUM(V26:V36)</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="W37" s="13"/>
     </row>
@@ -11467,7 +11688,7 @@
       </c>
       <c r="V41" s="9">
         <f>COUNTIF($O$6:$O$51,"*KS*")</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W41" s="13"/>
     </row>
@@ -11702,7 +11923,7 @@
       <c r="S48" s="3"/>
       <c r="T48" s="34">
         <f>COUNTIF(J9:J20,"*GSM*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U48" s="9" t="s">
         <v>57</v>
@@ -12442,8 +12663,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X115"/>
   <sheetViews>
-    <sheetView showZeros="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView showZeros="0" topLeftCell="J1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="O10" sqref="O10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -12668,16 +12889,32 @@
         <v>62</v>
       </c>
       <c r="H6" s="59"/>
-      <c r="I6" s="60"/>
+      <c r="I6" s="60" t="s">
+        <v>78</v>
+      </c>
       <c r="J6" s="61"/>
-      <c r="K6" s="62"/>
-      <c r="L6" s="63"/>
-      <c r="M6" s="63"/>
+      <c r="K6" s="62" t="s">
+        <v>77</v>
+      </c>
+      <c r="L6" s="62" t="s">
+        <v>71</v>
+      </c>
+      <c r="M6" s="63" t="s">
+        <v>80</v>
+      </c>
       <c r="N6" s="61"/>
-      <c r="O6" s="61"/>
-      <c r="P6" s="63"/>
-      <c r="Q6" s="61"/>
-      <c r="R6" s="64"/>
+      <c r="O6" s="61" t="s">
+        <v>75</v>
+      </c>
+      <c r="P6" s="63" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q6" s="61" t="s">
+        <v>19</v>
+      </c>
+      <c r="R6" s="64" t="s">
+        <v>25</v>
+      </c>
       <c r="S6" s="68"/>
       <c r="T6" s="71"/>
       <c r="U6" s="80" t="s">
@@ -12707,16 +12944,32 @@
         <v>62</v>
       </c>
       <c r="H7" s="59"/>
-      <c r="I7" s="60"/>
-      <c r="J7" s="61"/>
-      <c r="K7" s="62"/>
+      <c r="I7" s="60" t="s">
+        <v>72</v>
+      </c>
+      <c r="J7" s="61" t="s">
+        <v>73</v>
+      </c>
+      <c r="K7" s="62" t="s">
+        <v>71</v>
+      </c>
       <c r="L7" s="63"/>
-      <c r="M7" s="63"/>
+      <c r="M7" s="63" t="s">
+        <v>74</v>
+      </c>
       <c r="N7" s="61"/>
-      <c r="O7" s="61"/>
-      <c r="P7" s="63"/>
-      <c r="Q7" s="61"/>
-      <c r="R7" s="64"/>
+      <c r="O7" s="61" t="s">
+        <v>75</v>
+      </c>
+      <c r="P7" s="63" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q7" s="61" t="s">
+        <v>82</v>
+      </c>
+      <c r="R7" s="64" t="s">
+        <v>83</v>
+      </c>
       <c r="S7" s="68"/>
       <c r="T7" s="71"/>
       <c r="U7" s="81"/>
@@ -12744,16 +12997,32 @@
         <v>62</v>
       </c>
       <c r="H8" s="59"/>
-      <c r="I8" s="60"/>
-      <c r="J8" s="61"/>
+      <c r="I8" s="60" t="s">
+        <v>72</v>
+      </c>
+      <c r="J8" s="61" t="s">
+        <v>73</v>
+      </c>
       <c r="K8" s="62"/>
-      <c r="L8" s="63"/>
-      <c r="M8" s="63"/>
+      <c r="L8" s="63" t="s">
+        <v>71</v>
+      </c>
+      <c r="M8" s="63" t="s">
+        <v>74</v>
+      </c>
       <c r="N8" s="61"/>
-      <c r="O8" s="61"/>
-      <c r="P8" s="63"/>
-      <c r="Q8" s="61"/>
-      <c r="R8" s="64"/>
+      <c r="O8" s="61" t="s">
+        <v>75</v>
+      </c>
+      <c r="P8" s="63" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q8" s="61" t="s">
+        <v>82</v>
+      </c>
+      <c r="R8" s="64" t="s">
+        <v>83</v>
+      </c>
       <c r="S8" s="68"/>
       <c r="T8" s="71"/>
       <c r="U8" s="81"/>
@@ -12781,16 +13050,30 @@
         <v>62</v>
       </c>
       <c r="H9" s="59"/>
-      <c r="I9" s="60"/>
+      <c r="I9" s="60" t="s">
+        <v>79</v>
+      </c>
       <c r="J9" s="61"/>
-      <c r="K9" s="61"/>
+      <c r="K9" s="62" t="s">
+        <v>71</v>
+      </c>
       <c r="L9" s="63"/>
-      <c r="M9" s="63"/>
+      <c r="M9" s="63" t="s">
+        <v>81</v>
+      </c>
       <c r="N9" s="61"/>
-      <c r="O9" s="61"/>
-      <c r="P9" s="63"/>
-      <c r="Q9" s="61"/>
-      <c r="R9" s="64"/>
+      <c r="O9" s="61" t="s">
+        <v>75</v>
+      </c>
+      <c r="P9" s="63" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q9" s="61" t="s">
+        <v>19</v>
+      </c>
+      <c r="R9" s="64" t="s">
+        <v>25</v>
+      </c>
       <c r="S9" s="68"/>
       <c r="T9" s="71"/>
       <c r="U9" s="81"/>
@@ -12818,16 +13101,34 @@
         <v>62</v>
       </c>
       <c r="H10" s="59"/>
-      <c r="I10" s="60"/>
-      <c r="J10" s="61"/>
-      <c r="K10" s="67"/>
-      <c r="L10" s="63"/>
-      <c r="M10" s="63"/>
+      <c r="I10" s="60" t="s">
+        <v>85</v>
+      </c>
+      <c r="J10" s="61" t="s">
+        <v>86</v>
+      </c>
+      <c r="K10" s="67" t="s">
+        <v>84</v>
+      </c>
+      <c r="L10" s="63" t="s">
+        <v>71</v>
+      </c>
+      <c r="M10" s="63" t="s">
+        <v>87</v>
+      </c>
       <c r="N10" s="61"/>
-      <c r="O10" s="61"/>
-      <c r="P10" s="63"/>
-      <c r="Q10" s="61"/>
-      <c r="R10" s="64"/>
+      <c r="O10" s="61" t="s">
+        <v>75</v>
+      </c>
+      <c r="P10" s="63" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q10" s="61" t="s">
+        <v>82</v>
+      </c>
+      <c r="R10" s="64" t="s">
+        <v>83</v>
+      </c>
       <c r="S10" s="68"/>
       <c r="T10" s="71"/>
       <c r="U10" s="81"/>
@@ -13124,7 +13425,7 @@
       </c>
       <c r="V20" s="9">
         <f>COUNTIF($Q$6:$Q$51,"PM")</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W20" s="13"/>
     </row>
@@ -13188,7 +13489,7 @@
       </c>
       <c r="V22" s="9">
         <f>COUNTIF($Q$6:$Q$51,"PC+PM")</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="W22" s="13"/>
     </row>
@@ -13401,7 +13702,7 @@
       </c>
       <c r="V29" s="9">
         <f>COUNTIF($R$6:$R$51,"*NG*")</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="W29" s="13"/>
     </row>
@@ -13593,7 +13894,7 @@
       </c>
       <c r="V35" s="9">
         <f>COUNTIF($R$6:$R$51,"*NCFW*")</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="W35" s="13"/>
     </row>
@@ -13625,7 +13926,7 @@
       </c>
       <c r="V36" s="9">
         <f>COUNTIF($R$6:$R$51,"*KL*")</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W36" s="13"/>
     </row>
@@ -13657,7 +13958,7 @@
       </c>
       <c r="V37" s="9">
         <f>SUM(V26:V36)</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="W37" s="13"/>
     </row>
@@ -14750,8 +15051,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X115"/>
   <sheetViews>
-    <sheetView showZeros="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView showZeros="0" topLeftCell="K4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="S6" sqref="S6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -14977,15 +15278,27 @@
       </c>
       <c r="H6" s="59"/>
       <c r="I6" s="60"/>
-      <c r="J6" s="61"/>
+      <c r="J6" s="61" t="s">
+        <v>88</v>
+      </c>
       <c r="K6" s="62"/>
       <c r="L6" s="63"/>
-      <c r="M6" s="63"/>
+      <c r="M6" s="63" t="s">
+        <v>89</v>
+      </c>
       <c r="N6" s="61"/>
-      <c r="O6" s="61"/>
-      <c r="P6" s="63"/>
-      <c r="Q6" s="61"/>
-      <c r="R6" s="64"/>
+      <c r="O6" s="61" t="s">
+        <v>75</v>
+      </c>
+      <c r="P6" s="63" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q6" s="61" t="s">
+        <v>19</v>
+      </c>
+      <c r="R6" s="64" t="s">
+        <v>23</v>
+      </c>
       <c r="S6" s="68"/>
       <c r="T6" s="66"/>
       <c r="U6" s="80" t="s">
@@ -15400,7 +15713,7 @@
       </c>
       <c r="V20" s="9">
         <f>COUNTIF($Q$6:$Q$51,"PM")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W20" s="13"/>
     </row>
@@ -15773,7 +16086,7 @@
       </c>
       <c r="V32" s="9">
         <f>COUNTIF($R$6:$R$51,"*MCH*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W32" s="13"/>
     </row>
@@ -15933,7 +16246,7 @@
       </c>
       <c r="V37" s="9">
         <f>SUM(V26:V36)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W37" s="13"/>
     </row>

--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2022/Thang10/2.XulyBH/XLBH2210_TechGlobal.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2022/Thang10/2.XulyBH/XLBH2210_TechGlobal.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="4035" windowWidth="10320" windowHeight="4065" activeTab="6"/>
+    <workbookView xWindow="-15" yWindow="4035" windowWidth="10320" windowHeight="4065" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="CAM-HL02" sheetId="61" r:id="rId1"/>
@@ -811,6 +811,30 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -828,30 +852,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1195,41 +1195,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="73"/>
-      <c r="B1" s="73"/>
-      <c r="C1" s="73"/>
-      <c r="D1" s="73"/>
-      <c r="E1" s="73"/>
-      <c r="F1" s="73"/>
-      <c r="G1" s="73"/>
-      <c r="H1" s="73"/>
-      <c r="I1" s="73"/>
-      <c r="J1" s="73"/>
-      <c r="K1" s="73"/>
-      <c r="L1" s="73"/>
-      <c r="M1" s="73"/>
-      <c r="N1" s="73"/>
-      <c r="O1" s="73"/>
-      <c r="P1" s="73"/>
-      <c r="Q1" s="73"/>
-      <c r="R1" s="73"/>
-      <c r="S1" s="73"/>
-      <c r="T1" s="73"/>
-      <c r="U1" s="73"/>
-      <c r="V1" s="73"/>
+      <c r="A1" s="81"/>
+      <c r="B1" s="81"/>
+      <c r="C1" s="81"/>
+      <c r="D1" s="81"/>
+      <c r="E1" s="81"/>
+      <c r="F1" s="81"/>
+      <c r="G1" s="81"/>
+      <c r="H1" s="81"/>
+      <c r="I1" s="81"/>
+      <c r="J1" s="81"/>
+      <c r="K1" s="81"/>
+      <c r="L1" s="81"/>
+      <c r="M1" s="81"/>
+      <c r="N1" s="81"/>
+      <c r="O1" s="81"/>
+      <c r="P1" s="81"/>
+      <c r="Q1" s="81"/>
+      <c r="R1" s="81"/>
+      <c r="S1" s="81"/>
+      <c r="T1" s="81"/>
+      <c r="U1" s="81"/>
+      <c r="V1" s="81"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="74" t="s">
+      <c r="A2" s="82" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="75"/>
-      <c r="C2" s="75"/>
-      <c r="D2" s="75"/>
-      <c r="E2" s="76" t="s">
+      <c r="B2" s="83"/>
+      <c r="C2" s="83"/>
+      <c r="D2" s="83"/>
+      <c r="E2" s="84" t="s">
         <v>63</v>
       </c>
-      <c r="F2" s="76"/>
+      <c r="F2" s="84"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -1274,58 +1274,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="77" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="72" t="s">
+      <c r="A4" s="85" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="80" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="72"/>
-      <c r="D4" s="72"/>
-      <c r="E4" s="72"/>
-      <c r="F4" s="72"/>
-      <c r="G4" s="72"/>
-      <c r="H4" s="72"/>
-      <c r="I4" s="72"/>
-      <c r="J4" s="72" t="s">
+      <c r="C4" s="80"/>
+      <c r="D4" s="80"/>
+      <c r="E4" s="80"/>
+      <c r="F4" s="80"/>
+      <c r="G4" s="80"/>
+      <c r="H4" s="80"/>
+      <c r="I4" s="80"/>
+      <c r="J4" s="80" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="72" t="s">
+      <c r="K4" s="80" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="72"/>
-      <c r="M4" s="78" t="s">
+      <c r="L4" s="80"/>
+      <c r="M4" s="77" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="78" t="s">
+      <c r="N4" s="77" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="78" t="s">
+      <c r="O4" s="77" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="83" t="s">
+      <c r="P4" s="75" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="78" t="s">
+      <c r="Q4" s="77" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="78" t="s">
+      <c r="R4" s="77" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="85" t="s">
+      <c r="S4" s="79" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="72" t="s">
+      <c r="U4" s="80" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="72" t="s">
+      <c r="V4" s="80" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="77"/>
+      <c r="A5" s="85"/>
       <c r="B5" s="70" t="s">
         <v>1</v>
       </c>
@@ -1350,23 +1350,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="72"/>
+      <c r="J5" s="80"/>
       <c r="K5" s="70" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="70" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="79"/>
-      <c r="N5" s="79"/>
-      <c r="O5" s="79"/>
-      <c r="P5" s="84"/>
-      <c r="Q5" s="79"/>
-      <c r="R5" s="79"/>
-      <c r="S5" s="85"/>
+      <c r="M5" s="78"/>
+      <c r="N5" s="78"/>
+      <c r="O5" s="78"/>
+      <c r="P5" s="76"/>
+      <c r="Q5" s="78"/>
+      <c r="R5" s="78"/>
+      <c r="S5" s="79"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="72"/>
-      <c r="V5" s="72"/>
+      <c r="U5" s="80"/>
+      <c r="V5" s="80"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -1414,7 +1414,7 @@
       </c>
       <c r="S6" s="68"/>
       <c r="T6" s="71"/>
-      <c r="U6" s="80" t="s">
+      <c r="U6" s="72" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -1445,7 +1445,7 @@
       <c r="R7" s="64"/>
       <c r="S7" s="68"/>
       <c r="T7" s="71"/>
-      <c r="U7" s="81"/>
+      <c r="U7" s="73"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -1474,7 +1474,7 @@
       <c r="R8" s="64"/>
       <c r="S8" s="68"/>
       <c r="T8" s="71"/>
-      <c r="U8" s="81"/>
+      <c r="U8" s="73"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -1503,7 +1503,7 @@
       <c r="R9" s="64"/>
       <c r="S9" s="68"/>
       <c r="T9" s="71"/>
-      <c r="U9" s="81"/>
+      <c r="U9" s="73"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -1532,7 +1532,7 @@
       <c r="R10" s="64"/>
       <c r="S10" s="68"/>
       <c r="T10" s="71"/>
-      <c r="U10" s="81"/>
+      <c r="U10" s="73"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -1561,7 +1561,7 @@
       <c r="R11" s="64"/>
       <c r="S11" s="68"/>
       <c r="T11" s="71"/>
-      <c r="U11" s="81"/>
+      <c r="U11" s="73"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -1590,7 +1590,7 @@
       <c r="R12" s="2"/>
       <c r="S12" s="3"/>
       <c r="T12" s="71"/>
-      <c r="U12" s="80" t="s">
+      <c r="U12" s="72" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -1621,7 +1621,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="71"/>
-      <c r="U13" s="81"/>
+      <c r="U13" s="73"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -1650,7 +1650,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="71"/>
-      <c r="U14" s="81"/>
+      <c r="U14" s="73"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -1679,7 +1679,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="81"/>
+      <c r="U15" s="73"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -1708,7 +1708,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="82"/>
+      <c r="U16" s="74"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -3424,13 +3424,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -3442,6 +3435,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3452,8 +3452,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X115"/>
   <sheetViews>
-    <sheetView showZeros="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView showZeros="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3485,41 +3485,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="73"/>
-      <c r="B1" s="73"/>
-      <c r="C1" s="73"/>
-      <c r="D1" s="73"/>
-      <c r="E1" s="73"/>
-      <c r="F1" s="73"/>
-      <c r="G1" s="73"/>
-      <c r="H1" s="73"/>
-      <c r="I1" s="73"/>
-      <c r="J1" s="73"/>
-      <c r="K1" s="73"/>
-      <c r="L1" s="73"/>
-      <c r="M1" s="73"/>
-      <c r="N1" s="73"/>
-      <c r="O1" s="73"/>
-      <c r="P1" s="73"/>
-      <c r="Q1" s="73"/>
-      <c r="R1" s="73"/>
-      <c r="S1" s="73"/>
-      <c r="T1" s="73"/>
-      <c r="U1" s="73"/>
-      <c r="V1" s="73"/>
+      <c r="A1" s="81"/>
+      <c r="B1" s="81"/>
+      <c r="C1" s="81"/>
+      <c r="D1" s="81"/>
+      <c r="E1" s="81"/>
+      <c r="F1" s="81"/>
+      <c r="G1" s="81"/>
+      <c r="H1" s="81"/>
+      <c r="I1" s="81"/>
+      <c r="J1" s="81"/>
+      <c r="K1" s="81"/>
+      <c r="L1" s="81"/>
+      <c r="M1" s="81"/>
+      <c r="N1" s="81"/>
+      <c r="O1" s="81"/>
+      <c r="P1" s="81"/>
+      <c r="Q1" s="81"/>
+      <c r="R1" s="81"/>
+      <c r="S1" s="81"/>
+      <c r="T1" s="81"/>
+      <c r="U1" s="81"/>
+      <c r="V1" s="81"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="74" t="s">
+      <c r="A2" s="82" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="75"/>
-      <c r="C2" s="75"/>
-      <c r="D2" s="75"/>
-      <c r="E2" s="76" t="s">
+      <c r="B2" s="83"/>
+      <c r="C2" s="83"/>
+      <c r="D2" s="83"/>
+      <c r="E2" s="84" t="s">
         <v>63</v>
       </c>
-      <c r="F2" s="76"/>
+      <c r="F2" s="84"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -3564,58 +3564,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="77" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="72" t="s">
+      <c r="A4" s="85" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="80" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="72"/>
-      <c r="D4" s="72"/>
-      <c r="E4" s="72"/>
-      <c r="F4" s="72"/>
-      <c r="G4" s="72"/>
-      <c r="H4" s="72"/>
-      <c r="I4" s="72"/>
-      <c r="J4" s="72" t="s">
+      <c r="C4" s="80"/>
+      <c r="D4" s="80"/>
+      <c r="E4" s="80"/>
+      <c r="F4" s="80"/>
+      <c r="G4" s="80"/>
+      <c r="H4" s="80"/>
+      <c r="I4" s="80"/>
+      <c r="J4" s="80" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="72" t="s">
+      <c r="K4" s="80" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="72"/>
-      <c r="M4" s="78" t="s">
+      <c r="L4" s="80"/>
+      <c r="M4" s="77" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="78" t="s">
+      <c r="N4" s="77" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="78" t="s">
+      <c r="O4" s="77" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="83" t="s">
+      <c r="P4" s="75" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="78" t="s">
+      <c r="Q4" s="77" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="78" t="s">
+      <c r="R4" s="77" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="85" t="s">
+      <c r="S4" s="79" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="72" t="s">
+      <c r="U4" s="80" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="72" t="s">
+      <c r="V4" s="80" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="77"/>
+      <c r="A5" s="85"/>
       <c r="B5" s="70" t="s">
         <v>1</v>
       </c>
@@ -3640,23 +3640,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="72"/>
+      <c r="J5" s="80"/>
       <c r="K5" s="70" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="70" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="79"/>
-      <c r="N5" s="79"/>
-      <c r="O5" s="79"/>
-      <c r="P5" s="84"/>
-      <c r="Q5" s="79"/>
-      <c r="R5" s="79"/>
-      <c r="S5" s="85"/>
+      <c r="M5" s="78"/>
+      <c r="N5" s="78"/>
+      <c r="O5" s="78"/>
+      <c r="P5" s="76"/>
+      <c r="Q5" s="78"/>
+      <c r="R5" s="78"/>
+      <c r="S5" s="79"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="72"/>
-      <c r="V5" s="72"/>
+      <c r="U5" s="80"/>
+      <c r="V5" s="80"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -3702,7 +3702,7 @@
       </c>
       <c r="S6" s="68"/>
       <c r="T6" s="71"/>
-      <c r="U6" s="80" t="s">
+      <c r="U6" s="72" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -3716,10 +3716,10 @@
       </c>
       <c r="B7" s="58"/>
       <c r="C7" s="58"/>
-      <c r="D7" s="59"/>
-      <c r="E7" s="67"/>
-      <c r="F7" s="59"/>
-      <c r="G7" s="59"/>
+      <c r="D7" s="56"/>
+      <c r="E7" s="57"/>
+      <c r="F7" s="56"/>
+      <c r="G7" s="56"/>
       <c r="H7" s="59"/>
       <c r="I7" s="60"/>
       <c r="J7" s="61"/>
@@ -3733,7 +3733,7 @@
       <c r="R7" s="64"/>
       <c r="S7" s="68"/>
       <c r="T7" s="71"/>
-      <c r="U7" s="81"/>
+      <c r="U7" s="73"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -3745,10 +3745,10 @@
       </c>
       <c r="B8" s="58"/>
       <c r="C8" s="58"/>
-      <c r="D8" s="59"/>
-      <c r="E8" s="67"/>
-      <c r="F8" s="59"/>
-      <c r="G8" s="59"/>
+      <c r="D8" s="56"/>
+      <c r="E8" s="57"/>
+      <c r="F8" s="56"/>
+      <c r="G8" s="56"/>
       <c r="H8" s="59"/>
       <c r="I8" s="60"/>
       <c r="J8" s="61"/>
@@ -3762,7 +3762,7 @@
       <c r="R8" s="64"/>
       <c r="S8" s="68"/>
       <c r="T8" s="71"/>
-      <c r="U8" s="81"/>
+      <c r="U8" s="73"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -3774,10 +3774,10 @@
       </c>
       <c r="B9" s="58"/>
       <c r="C9" s="58"/>
-      <c r="D9" s="59"/>
-      <c r="E9" s="67"/>
-      <c r="F9" s="59"/>
-      <c r="G9" s="59"/>
+      <c r="D9" s="56"/>
+      <c r="E9" s="57"/>
+      <c r="F9" s="56"/>
+      <c r="G9" s="56"/>
       <c r="H9" s="59"/>
       <c r="I9" s="60"/>
       <c r="J9" s="61"/>
@@ -3791,7 +3791,7 @@
       <c r="R9" s="64"/>
       <c r="S9" s="68"/>
       <c r="T9" s="71"/>
-      <c r="U9" s="81"/>
+      <c r="U9" s="73"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -3820,7 +3820,7 @@
       <c r="R10" s="64"/>
       <c r="S10" s="68"/>
       <c r="T10" s="71"/>
-      <c r="U10" s="81"/>
+      <c r="U10" s="73"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -3849,7 +3849,7 @@
       <c r="R11" s="64"/>
       <c r="S11" s="68"/>
       <c r="T11" s="71"/>
-      <c r="U11" s="81"/>
+      <c r="U11" s="73"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -3878,7 +3878,7 @@
       <c r="R12" s="2"/>
       <c r="S12" s="3"/>
       <c r="T12" s="71"/>
-      <c r="U12" s="80" t="s">
+      <c r="U12" s="72" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -3909,7 +3909,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="71"/>
-      <c r="U13" s="81"/>
+      <c r="U13" s="73"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -3938,7 +3938,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="71"/>
-      <c r="U14" s="81"/>
+      <c r="U14" s="73"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -3967,7 +3967,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="81"/>
+      <c r="U15" s="73"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -3996,7 +3996,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="82"/>
+      <c r="U16" s="74"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -5712,13 +5712,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -5730,6 +5723,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -5773,41 +5773,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="73"/>
-      <c r="B1" s="73"/>
-      <c r="C1" s="73"/>
-      <c r="D1" s="73"/>
-      <c r="E1" s="73"/>
-      <c r="F1" s="73"/>
-      <c r="G1" s="73"/>
-      <c r="H1" s="73"/>
-      <c r="I1" s="73"/>
-      <c r="J1" s="73"/>
-      <c r="K1" s="73"/>
-      <c r="L1" s="73"/>
-      <c r="M1" s="73"/>
-      <c r="N1" s="73"/>
-      <c r="O1" s="73"/>
-      <c r="P1" s="73"/>
-      <c r="Q1" s="73"/>
-      <c r="R1" s="73"/>
-      <c r="S1" s="73"/>
-      <c r="T1" s="73"/>
-      <c r="U1" s="73"/>
-      <c r="V1" s="73"/>
+      <c r="A1" s="81"/>
+      <c r="B1" s="81"/>
+      <c r="C1" s="81"/>
+      <c r="D1" s="81"/>
+      <c r="E1" s="81"/>
+      <c r="F1" s="81"/>
+      <c r="G1" s="81"/>
+      <c r="H1" s="81"/>
+      <c r="I1" s="81"/>
+      <c r="J1" s="81"/>
+      <c r="K1" s="81"/>
+      <c r="L1" s="81"/>
+      <c r="M1" s="81"/>
+      <c r="N1" s="81"/>
+      <c r="O1" s="81"/>
+      <c r="P1" s="81"/>
+      <c r="Q1" s="81"/>
+      <c r="R1" s="81"/>
+      <c r="S1" s="81"/>
+      <c r="T1" s="81"/>
+      <c r="U1" s="81"/>
+      <c r="V1" s="81"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="74" t="s">
+      <c r="A2" s="82" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="75"/>
-      <c r="C2" s="75"/>
-      <c r="D2" s="75"/>
-      <c r="E2" s="76" t="s">
+      <c r="B2" s="83"/>
+      <c r="C2" s="83"/>
+      <c r="D2" s="83"/>
+      <c r="E2" s="84" t="s">
         <v>63</v>
       </c>
-      <c r="F2" s="76"/>
+      <c r="F2" s="84"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -5852,58 +5852,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="77" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="72" t="s">
+      <c r="A4" s="85" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="80" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="72"/>
-      <c r="D4" s="72"/>
-      <c r="E4" s="72"/>
-      <c r="F4" s="72"/>
-      <c r="G4" s="72"/>
-      <c r="H4" s="72"/>
-      <c r="I4" s="72"/>
-      <c r="J4" s="72" t="s">
+      <c r="C4" s="80"/>
+      <c r="D4" s="80"/>
+      <c r="E4" s="80"/>
+      <c r="F4" s="80"/>
+      <c r="G4" s="80"/>
+      <c r="H4" s="80"/>
+      <c r="I4" s="80"/>
+      <c r="J4" s="80" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="72" t="s">
+      <c r="K4" s="80" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="72"/>
-      <c r="M4" s="78" t="s">
+      <c r="L4" s="80"/>
+      <c r="M4" s="77" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="78" t="s">
+      <c r="N4" s="77" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="78" t="s">
+      <c r="O4" s="77" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="83" t="s">
+      <c r="P4" s="75" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="78" t="s">
+      <c r="Q4" s="77" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="78" t="s">
+      <c r="R4" s="77" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="85" t="s">
+      <c r="S4" s="79" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="72" t="s">
+      <c r="U4" s="80" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="72" t="s">
+      <c r="V4" s="80" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="77"/>
+      <c r="A5" s="85"/>
       <c r="B5" s="70" t="s">
         <v>1</v>
       </c>
@@ -5928,23 +5928,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="72"/>
+      <c r="J5" s="80"/>
       <c r="K5" s="70" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="70" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="79"/>
-      <c r="N5" s="79"/>
-      <c r="O5" s="79"/>
-      <c r="P5" s="84"/>
-      <c r="Q5" s="79"/>
-      <c r="R5" s="79"/>
-      <c r="S5" s="85"/>
+      <c r="M5" s="78"/>
+      <c r="N5" s="78"/>
+      <c r="O5" s="78"/>
+      <c r="P5" s="76"/>
+      <c r="Q5" s="78"/>
+      <c r="R5" s="78"/>
+      <c r="S5" s="79"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="72"/>
-      <c r="V5" s="72"/>
+      <c r="U5" s="80"/>
+      <c r="V5" s="80"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -5996,7 +5996,7 @@
       </c>
       <c r="S6" s="68"/>
       <c r="T6" s="71"/>
-      <c r="U6" s="80" t="s">
+      <c r="U6" s="72" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -6027,7 +6027,7 @@
       <c r="R7" s="64"/>
       <c r="S7" s="68"/>
       <c r="T7" s="71"/>
-      <c r="U7" s="81"/>
+      <c r="U7" s="73"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -6056,7 +6056,7 @@
       <c r="R8" s="64"/>
       <c r="S8" s="68"/>
       <c r="T8" s="71"/>
-      <c r="U8" s="81"/>
+      <c r="U8" s="73"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -6085,7 +6085,7 @@
       <c r="R9" s="64"/>
       <c r="S9" s="68"/>
       <c r="T9" s="71"/>
-      <c r="U9" s="81"/>
+      <c r="U9" s="73"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -6114,7 +6114,7 @@
       <c r="R10" s="64"/>
       <c r="S10" s="68"/>
       <c r="T10" s="71"/>
-      <c r="U10" s="81"/>
+      <c r="U10" s="73"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -6143,7 +6143,7 @@
       <c r="R11" s="64"/>
       <c r="S11" s="68"/>
       <c r="T11" s="71"/>
-      <c r="U11" s="81"/>
+      <c r="U11" s="73"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -6172,7 +6172,7 @@
       <c r="R12" s="2"/>
       <c r="S12" s="3"/>
       <c r="T12" s="71"/>
-      <c r="U12" s="80" t="s">
+      <c r="U12" s="72" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -6203,7 +6203,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="71"/>
-      <c r="U13" s="81"/>
+      <c r="U13" s="73"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -6232,7 +6232,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="71"/>
-      <c r="U14" s="81"/>
+      <c r="U14" s="73"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -6261,7 +6261,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="81"/>
+      <c r="U15" s="73"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -6290,7 +6290,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="82"/>
+      <c r="U16" s="74"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -8006,13 +8006,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -8024,6 +8017,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -8067,41 +8067,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="73"/>
-      <c r="B1" s="73"/>
-      <c r="C1" s="73"/>
-      <c r="D1" s="73"/>
-      <c r="E1" s="73"/>
-      <c r="F1" s="73"/>
-      <c r="G1" s="73"/>
-      <c r="H1" s="73"/>
-      <c r="I1" s="73"/>
-      <c r="J1" s="73"/>
-      <c r="K1" s="73"/>
-      <c r="L1" s="73"/>
-      <c r="M1" s="73"/>
-      <c r="N1" s="73"/>
-      <c r="O1" s="73"/>
-      <c r="P1" s="73"/>
-      <c r="Q1" s="73"/>
-      <c r="R1" s="73"/>
-      <c r="S1" s="73"/>
-      <c r="T1" s="73"/>
-      <c r="U1" s="73"/>
-      <c r="V1" s="73"/>
+      <c r="A1" s="81"/>
+      <c r="B1" s="81"/>
+      <c r="C1" s="81"/>
+      <c r="D1" s="81"/>
+      <c r="E1" s="81"/>
+      <c r="F1" s="81"/>
+      <c r="G1" s="81"/>
+      <c r="H1" s="81"/>
+      <c r="I1" s="81"/>
+      <c r="J1" s="81"/>
+      <c r="K1" s="81"/>
+      <c r="L1" s="81"/>
+      <c r="M1" s="81"/>
+      <c r="N1" s="81"/>
+      <c r="O1" s="81"/>
+      <c r="P1" s="81"/>
+      <c r="Q1" s="81"/>
+      <c r="R1" s="81"/>
+      <c r="S1" s="81"/>
+      <c r="T1" s="81"/>
+      <c r="U1" s="81"/>
+      <c r="V1" s="81"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="74" t="s">
+      <c r="A2" s="82" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="75"/>
-      <c r="C2" s="75"/>
-      <c r="D2" s="75"/>
-      <c r="E2" s="76" t="s">
+      <c r="B2" s="83"/>
+      <c r="C2" s="83"/>
+      <c r="D2" s="83"/>
+      <c r="E2" s="84" t="s">
         <v>63</v>
       </c>
-      <c r="F2" s="76"/>
+      <c r="F2" s="84"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -8146,58 +8146,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="77" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="72" t="s">
+      <c r="A4" s="85" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="80" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="72"/>
-      <c r="D4" s="72"/>
-      <c r="E4" s="72"/>
-      <c r="F4" s="72"/>
-      <c r="G4" s="72"/>
-      <c r="H4" s="72"/>
-      <c r="I4" s="72"/>
-      <c r="J4" s="72" t="s">
+      <c r="C4" s="80"/>
+      <c r="D4" s="80"/>
+      <c r="E4" s="80"/>
+      <c r="F4" s="80"/>
+      <c r="G4" s="80"/>
+      <c r="H4" s="80"/>
+      <c r="I4" s="80"/>
+      <c r="J4" s="80" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="72" t="s">
+      <c r="K4" s="80" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="72"/>
-      <c r="M4" s="78" t="s">
+      <c r="L4" s="80"/>
+      <c r="M4" s="77" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="78" t="s">
+      <c r="N4" s="77" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="78" t="s">
+      <c r="O4" s="77" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="83" t="s">
+      <c r="P4" s="75" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="78" t="s">
+      <c r="Q4" s="77" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="78" t="s">
+      <c r="R4" s="77" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="85" t="s">
+      <c r="S4" s="79" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="72" t="s">
+      <c r="U4" s="80" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="72" t="s">
+      <c r="V4" s="80" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="77"/>
+      <c r="A5" s="85"/>
       <c r="B5" s="70" t="s">
         <v>1</v>
       </c>
@@ -8222,23 +8222,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="72"/>
+      <c r="J5" s="80"/>
       <c r="K5" s="70" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="70" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="79"/>
-      <c r="N5" s="79"/>
-      <c r="O5" s="79"/>
-      <c r="P5" s="84"/>
-      <c r="Q5" s="79"/>
-      <c r="R5" s="79"/>
-      <c r="S5" s="85"/>
+      <c r="M5" s="78"/>
+      <c r="N5" s="78"/>
+      <c r="O5" s="78"/>
+      <c r="P5" s="76"/>
+      <c r="Q5" s="78"/>
+      <c r="R5" s="78"/>
+      <c r="S5" s="79"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="72"/>
-      <c r="V5" s="72"/>
+      <c r="U5" s="80"/>
+      <c r="V5" s="80"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -8292,7 +8292,7 @@
       </c>
       <c r="S6" s="68"/>
       <c r="T6" s="71"/>
-      <c r="U6" s="80" t="s">
+      <c r="U6" s="72" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -8349,7 +8349,7 @@
       </c>
       <c r="S7" s="68"/>
       <c r="T7" s="71"/>
-      <c r="U7" s="81"/>
+      <c r="U7" s="73"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -8378,7 +8378,7 @@
       <c r="R8" s="64"/>
       <c r="S8" s="68"/>
       <c r="T8" s="71"/>
-      <c r="U8" s="81"/>
+      <c r="U8" s="73"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -8407,7 +8407,7 @@
       <c r="R9" s="64"/>
       <c r="S9" s="68"/>
       <c r="T9" s="71"/>
-      <c r="U9" s="81"/>
+      <c r="U9" s="73"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -8436,7 +8436,7 @@
       <c r="R10" s="64"/>
       <c r="S10" s="68"/>
       <c r="T10" s="71"/>
-      <c r="U10" s="81"/>
+      <c r="U10" s="73"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -8465,7 +8465,7 @@
       <c r="R11" s="64"/>
       <c r="S11" s="68"/>
       <c r="T11" s="71"/>
-      <c r="U11" s="81"/>
+      <c r="U11" s="73"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -8494,7 +8494,7 @@
       <c r="R12" s="2"/>
       <c r="S12" s="3"/>
       <c r="T12" s="71"/>
-      <c r="U12" s="80" t="s">
+      <c r="U12" s="72" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -8525,7 +8525,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="71"/>
-      <c r="U13" s="81"/>
+      <c r="U13" s="73"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -8554,7 +8554,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="71"/>
-      <c r="U14" s="81"/>
+      <c r="U14" s="73"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -8583,7 +8583,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="81"/>
+      <c r="U15" s="73"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -8612,7 +8612,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="82"/>
+      <c r="U16" s="74"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -10328,13 +10328,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -10346,6 +10339,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -10389,41 +10389,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="73"/>
-      <c r="B1" s="73"/>
-      <c r="C1" s="73"/>
-      <c r="D1" s="73"/>
-      <c r="E1" s="73"/>
-      <c r="F1" s="73"/>
-      <c r="G1" s="73"/>
-      <c r="H1" s="73"/>
-      <c r="I1" s="73"/>
-      <c r="J1" s="73"/>
-      <c r="K1" s="73"/>
-      <c r="L1" s="73"/>
-      <c r="M1" s="73"/>
-      <c r="N1" s="73"/>
-      <c r="O1" s="73"/>
-      <c r="P1" s="73"/>
-      <c r="Q1" s="73"/>
-      <c r="R1" s="73"/>
-      <c r="S1" s="73"/>
-      <c r="T1" s="73"/>
-      <c r="U1" s="73"/>
-      <c r="V1" s="73"/>
+      <c r="A1" s="81"/>
+      <c r="B1" s="81"/>
+      <c r="C1" s="81"/>
+      <c r="D1" s="81"/>
+      <c r="E1" s="81"/>
+      <c r="F1" s="81"/>
+      <c r="G1" s="81"/>
+      <c r="H1" s="81"/>
+      <c r="I1" s="81"/>
+      <c r="J1" s="81"/>
+      <c r="K1" s="81"/>
+      <c r="L1" s="81"/>
+      <c r="M1" s="81"/>
+      <c r="N1" s="81"/>
+      <c r="O1" s="81"/>
+      <c r="P1" s="81"/>
+      <c r="Q1" s="81"/>
+      <c r="R1" s="81"/>
+      <c r="S1" s="81"/>
+      <c r="T1" s="81"/>
+      <c r="U1" s="81"/>
+      <c r="V1" s="81"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="74" t="s">
+      <c r="A2" s="82" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="75"/>
-      <c r="C2" s="75"/>
-      <c r="D2" s="75"/>
-      <c r="E2" s="76" t="s">
+      <c r="B2" s="83"/>
+      <c r="C2" s="83"/>
+      <c r="D2" s="83"/>
+      <c r="E2" s="84" t="s">
         <v>63</v>
       </c>
-      <c r="F2" s="76"/>
+      <c r="F2" s="84"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -10468,58 +10468,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="77" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="72" t="s">
+      <c r="A4" s="85" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="80" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="72"/>
-      <c r="D4" s="72"/>
-      <c r="E4" s="72"/>
-      <c r="F4" s="72"/>
-      <c r="G4" s="72"/>
-      <c r="H4" s="72"/>
-      <c r="I4" s="72"/>
-      <c r="J4" s="72" t="s">
+      <c r="C4" s="80"/>
+      <c r="D4" s="80"/>
+      <c r="E4" s="80"/>
+      <c r="F4" s="80"/>
+      <c r="G4" s="80"/>
+      <c r="H4" s="80"/>
+      <c r="I4" s="80"/>
+      <c r="J4" s="80" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="72" t="s">
+      <c r="K4" s="80" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="72"/>
-      <c r="M4" s="78" t="s">
+      <c r="L4" s="80"/>
+      <c r="M4" s="77" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="78" t="s">
+      <c r="N4" s="77" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="78" t="s">
+      <c r="O4" s="77" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="83" t="s">
+      <c r="P4" s="75" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="78" t="s">
+      <c r="Q4" s="77" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="78" t="s">
+      <c r="R4" s="77" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="85" t="s">
+      <c r="S4" s="79" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="72" t="s">
+      <c r="U4" s="80" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="72" t="s">
+      <c r="V4" s="80" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="77"/>
+      <c r="A5" s="85"/>
       <c r="B5" s="70" t="s">
         <v>1</v>
       </c>
@@ -10544,23 +10544,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="72"/>
+      <c r="J5" s="80"/>
       <c r="K5" s="70" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="70" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="79"/>
-      <c r="N5" s="79"/>
-      <c r="O5" s="79"/>
-      <c r="P5" s="84"/>
-      <c r="Q5" s="79"/>
-      <c r="R5" s="79"/>
-      <c r="S5" s="85"/>
+      <c r="M5" s="78"/>
+      <c r="N5" s="78"/>
+      <c r="O5" s="78"/>
+      <c r="P5" s="76"/>
+      <c r="Q5" s="78"/>
+      <c r="R5" s="78"/>
+      <c r="S5" s="79"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="72"/>
-      <c r="V5" s="72"/>
+      <c r="U5" s="80"/>
+      <c r="V5" s="80"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -10614,7 +10614,7 @@
       </c>
       <c r="S6" s="68"/>
       <c r="T6" s="71"/>
-      <c r="U6" s="80" t="s">
+      <c r="U6" s="72" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -10667,7 +10667,7 @@
       </c>
       <c r="S7" s="68"/>
       <c r="T7" s="71"/>
-      <c r="U7" s="81"/>
+      <c r="U7" s="73"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -10724,7 +10724,7 @@
       </c>
       <c r="S8" s="68"/>
       <c r="T8" s="71"/>
-      <c r="U8" s="81"/>
+      <c r="U8" s="73"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -10775,7 +10775,7 @@
       </c>
       <c r="S9" s="68"/>
       <c r="T9" s="71"/>
-      <c r="U9" s="81"/>
+      <c r="U9" s="73"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -10804,7 +10804,7 @@
       <c r="R10" s="64"/>
       <c r="S10" s="68"/>
       <c r="T10" s="71"/>
-      <c r="U10" s="81"/>
+      <c r="U10" s="73"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -10833,7 +10833,7 @@
       <c r="R11" s="64"/>
       <c r="S11" s="68"/>
       <c r="T11" s="71"/>
-      <c r="U11" s="81"/>
+      <c r="U11" s="73"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -10862,7 +10862,7 @@
       <c r="R12" s="2"/>
       <c r="S12" s="3"/>
       <c r="T12" s="71"/>
-      <c r="U12" s="80" t="s">
+      <c r="U12" s="72" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -10893,7 +10893,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="71"/>
-      <c r="U13" s="81"/>
+      <c r="U13" s="73"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -10922,7 +10922,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="71"/>
-      <c r="U14" s="81"/>
+      <c r="U14" s="73"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -10951,7 +10951,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="81"/>
+      <c r="U15" s="73"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -10980,7 +10980,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="82"/>
+      <c r="U16" s="74"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -12696,13 +12696,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -12714,6 +12707,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -12757,41 +12757,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="73"/>
-      <c r="B1" s="73"/>
-      <c r="C1" s="73"/>
-      <c r="D1" s="73"/>
-      <c r="E1" s="73"/>
-      <c r="F1" s="73"/>
-      <c r="G1" s="73"/>
-      <c r="H1" s="73"/>
-      <c r="I1" s="73"/>
-      <c r="J1" s="73"/>
-      <c r="K1" s="73"/>
-      <c r="L1" s="73"/>
-      <c r="M1" s="73"/>
-      <c r="N1" s="73"/>
-      <c r="O1" s="73"/>
-      <c r="P1" s="73"/>
-      <c r="Q1" s="73"/>
-      <c r="R1" s="73"/>
-      <c r="S1" s="73"/>
-      <c r="T1" s="73"/>
-      <c r="U1" s="73"/>
-      <c r="V1" s="73"/>
+      <c r="A1" s="81"/>
+      <c r="B1" s="81"/>
+      <c r="C1" s="81"/>
+      <c r="D1" s="81"/>
+      <c r="E1" s="81"/>
+      <c r="F1" s="81"/>
+      <c r="G1" s="81"/>
+      <c r="H1" s="81"/>
+      <c r="I1" s="81"/>
+      <c r="J1" s="81"/>
+      <c r="K1" s="81"/>
+      <c r="L1" s="81"/>
+      <c r="M1" s="81"/>
+      <c r="N1" s="81"/>
+      <c r="O1" s="81"/>
+      <c r="P1" s="81"/>
+      <c r="Q1" s="81"/>
+      <c r="R1" s="81"/>
+      <c r="S1" s="81"/>
+      <c r="T1" s="81"/>
+      <c r="U1" s="81"/>
+      <c r="V1" s="81"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="74" t="s">
+      <c r="A2" s="82" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="75"/>
-      <c r="C2" s="75"/>
-      <c r="D2" s="75"/>
-      <c r="E2" s="76" t="s">
+      <c r="B2" s="83"/>
+      <c r="C2" s="83"/>
+      <c r="D2" s="83"/>
+      <c r="E2" s="84" t="s">
         <v>63</v>
       </c>
-      <c r="F2" s="76"/>
+      <c r="F2" s="84"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -12836,58 +12836,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="77" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="72" t="s">
+      <c r="A4" s="85" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="80" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="72"/>
-      <c r="D4" s="72"/>
-      <c r="E4" s="72"/>
-      <c r="F4" s="72"/>
-      <c r="G4" s="72"/>
-      <c r="H4" s="72"/>
-      <c r="I4" s="72"/>
-      <c r="J4" s="72" t="s">
+      <c r="C4" s="80"/>
+      <c r="D4" s="80"/>
+      <c r="E4" s="80"/>
+      <c r="F4" s="80"/>
+      <c r="G4" s="80"/>
+      <c r="H4" s="80"/>
+      <c r="I4" s="80"/>
+      <c r="J4" s="80" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="72" t="s">
+      <c r="K4" s="80" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="72"/>
-      <c r="M4" s="78" t="s">
+      <c r="L4" s="80"/>
+      <c r="M4" s="77" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="78" t="s">
+      <c r="N4" s="77" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="78" t="s">
+      <c r="O4" s="77" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="83" t="s">
+      <c r="P4" s="75" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="78" t="s">
+      <c r="Q4" s="77" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="78" t="s">
+      <c r="R4" s="77" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="85" t="s">
+      <c r="S4" s="79" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="72" t="s">
+      <c r="U4" s="80" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="72" t="s">
+      <c r="V4" s="80" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="77"/>
+      <c r="A5" s="85"/>
       <c r="B5" s="70" t="s">
         <v>1</v>
       </c>
@@ -12912,23 +12912,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="72"/>
+      <c r="J5" s="80"/>
       <c r="K5" s="70" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="70" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="79"/>
-      <c r="N5" s="79"/>
-      <c r="O5" s="79"/>
-      <c r="P5" s="84"/>
-      <c r="Q5" s="79"/>
-      <c r="R5" s="79"/>
-      <c r="S5" s="85"/>
+      <c r="M5" s="78"/>
+      <c r="N5" s="78"/>
+      <c r="O5" s="78"/>
+      <c r="P5" s="76"/>
+      <c r="Q5" s="78"/>
+      <c r="R5" s="78"/>
+      <c r="S5" s="79"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="72"/>
-      <c r="V5" s="72"/>
+      <c r="U5" s="80"/>
+      <c r="V5" s="80"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -12980,7 +12980,7 @@
       </c>
       <c r="S6" s="68"/>
       <c r="T6" s="71"/>
-      <c r="U6" s="80" t="s">
+      <c r="U6" s="72" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -13037,7 +13037,7 @@
       </c>
       <c r="S7" s="68"/>
       <c r="T7" s="71"/>
-      <c r="U7" s="81"/>
+      <c r="U7" s="73"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -13092,7 +13092,7 @@
       </c>
       <c r="S8" s="68"/>
       <c r="T8" s="71"/>
-      <c r="U8" s="81"/>
+      <c r="U8" s="73"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -13145,7 +13145,7 @@
       </c>
       <c r="S9" s="68"/>
       <c r="T9" s="71"/>
-      <c r="U9" s="81"/>
+      <c r="U9" s="73"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -13202,7 +13202,7 @@
       </c>
       <c r="S10" s="68"/>
       <c r="T10" s="71"/>
-      <c r="U10" s="81"/>
+      <c r="U10" s="73"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -13231,7 +13231,7 @@
       <c r="R11" s="64"/>
       <c r="S11" s="68"/>
       <c r="T11" s="71"/>
-      <c r="U11" s="81"/>
+      <c r="U11" s="73"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -13260,7 +13260,7 @@
       <c r="R12" s="2"/>
       <c r="S12" s="3"/>
       <c r="T12" s="71"/>
-      <c r="U12" s="80" t="s">
+      <c r="U12" s="72" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -13291,7 +13291,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="71"/>
-      <c r="U13" s="81"/>
+      <c r="U13" s="73"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -13320,7 +13320,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="71"/>
-      <c r="U14" s="81"/>
+      <c r="U14" s="73"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -13349,7 +13349,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="81"/>
+      <c r="U15" s="73"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -13378,7 +13378,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="82"/>
+      <c r="U16" s="74"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -15094,13 +15094,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -15112,6 +15105,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -15122,7 +15122,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X115"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showZeros="0" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
@@ -15155,41 +15155,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="73"/>
-      <c r="B1" s="73"/>
-      <c r="C1" s="73"/>
-      <c r="D1" s="73"/>
-      <c r="E1" s="73"/>
-      <c r="F1" s="73"/>
-      <c r="G1" s="73"/>
-      <c r="H1" s="73"/>
-      <c r="I1" s="73"/>
-      <c r="J1" s="73"/>
-      <c r="K1" s="73"/>
-      <c r="L1" s="73"/>
-      <c r="M1" s="73"/>
-      <c r="N1" s="73"/>
-      <c r="O1" s="73"/>
-      <c r="P1" s="73"/>
-      <c r="Q1" s="73"/>
-      <c r="R1" s="73"/>
-      <c r="S1" s="73"/>
-      <c r="T1" s="73"/>
-      <c r="U1" s="73"/>
-      <c r="V1" s="73"/>
+      <c r="A1" s="81"/>
+      <c r="B1" s="81"/>
+      <c r="C1" s="81"/>
+      <c r="D1" s="81"/>
+      <c r="E1" s="81"/>
+      <c r="F1" s="81"/>
+      <c r="G1" s="81"/>
+      <c r="H1" s="81"/>
+      <c r="I1" s="81"/>
+      <c r="J1" s="81"/>
+      <c r="K1" s="81"/>
+      <c r="L1" s="81"/>
+      <c r="M1" s="81"/>
+      <c r="N1" s="81"/>
+      <c r="O1" s="81"/>
+      <c r="P1" s="81"/>
+      <c r="Q1" s="81"/>
+      <c r="R1" s="81"/>
+      <c r="S1" s="81"/>
+      <c r="T1" s="81"/>
+      <c r="U1" s="81"/>
+      <c r="V1" s="81"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="74" t="s">
+      <c r="A2" s="82" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="75"/>
-      <c r="C2" s="75"/>
-      <c r="D2" s="75"/>
-      <c r="E2" s="76" t="s">
+      <c r="B2" s="83"/>
+      <c r="C2" s="83"/>
+      <c r="D2" s="83"/>
+      <c r="E2" s="84" t="s">
         <v>63</v>
       </c>
-      <c r="F2" s="76"/>
+      <c r="F2" s="84"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -15234,58 +15234,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="77" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="72" t="s">
+      <c r="A4" s="85" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="80" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="72"/>
-      <c r="D4" s="72"/>
-      <c r="E4" s="72"/>
-      <c r="F4" s="72"/>
-      <c r="G4" s="72"/>
-      <c r="H4" s="72"/>
-      <c r="I4" s="72"/>
-      <c r="J4" s="72" t="s">
+      <c r="C4" s="80"/>
+      <c r="D4" s="80"/>
+      <c r="E4" s="80"/>
+      <c r="F4" s="80"/>
+      <c r="G4" s="80"/>
+      <c r="H4" s="80"/>
+      <c r="I4" s="80"/>
+      <c r="J4" s="80" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="72" t="s">
+      <c r="K4" s="80" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="72"/>
-      <c r="M4" s="78" t="s">
+      <c r="L4" s="80"/>
+      <c r="M4" s="77" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="78" t="s">
+      <c r="N4" s="77" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="78" t="s">
+      <c r="O4" s="77" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="83" t="s">
+      <c r="P4" s="75" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="78" t="s">
+      <c r="Q4" s="77" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="78" t="s">
+      <c r="R4" s="77" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="85" t="s">
+      <c r="S4" s="79" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="72" t="s">
+      <c r="U4" s="80" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="72" t="s">
+      <c r="V4" s="80" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="77"/>
+      <c r="A5" s="85"/>
       <c r="B5" s="65" t="s">
         <v>1</v>
       </c>
@@ -15310,23 +15310,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="72"/>
+      <c r="J5" s="80"/>
       <c r="K5" s="65" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="65" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="79"/>
-      <c r="N5" s="79"/>
-      <c r="O5" s="79"/>
-      <c r="P5" s="84"/>
-      <c r="Q5" s="79"/>
-      <c r="R5" s="79"/>
-      <c r="S5" s="85"/>
+      <c r="M5" s="78"/>
+      <c r="N5" s="78"/>
+      <c r="O5" s="78"/>
+      <c r="P5" s="76"/>
+      <c r="Q5" s="78"/>
+      <c r="R5" s="78"/>
+      <c r="S5" s="79"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="72"/>
-      <c r="V5" s="72"/>
+      <c r="U5" s="80"/>
+      <c r="V5" s="80"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -15374,7 +15374,7 @@
       </c>
       <c r="S6" s="68"/>
       <c r="T6" s="66"/>
-      <c r="U6" s="80" t="s">
+      <c r="U6" s="72" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -15405,7 +15405,7 @@
       <c r="R7" s="64"/>
       <c r="S7" s="68"/>
       <c r="T7" s="66"/>
-      <c r="U7" s="81"/>
+      <c r="U7" s="73"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -15434,7 +15434,7 @@
       <c r="R8" s="64"/>
       <c r="S8" s="68"/>
       <c r="T8" s="66"/>
-      <c r="U8" s="81"/>
+      <c r="U8" s="73"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -15463,7 +15463,7 @@
       <c r="R9" s="64"/>
       <c r="S9" s="68"/>
       <c r="T9" s="66"/>
-      <c r="U9" s="81"/>
+      <c r="U9" s="73"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -15492,7 +15492,7 @@
       <c r="R10" s="64"/>
       <c r="S10" s="68"/>
       <c r="T10" s="66"/>
-      <c r="U10" s="81"/>
+      <c r="U10" s="73"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -15521,7 +15521,7 @@
       <c r="R11" s="64"/>
       <c r="S11" s="68"/>
       <c r="T11" s="66"/>
-      <c r="U11" s="81"/>
+      <c r="U11" s="73"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -15550,7 +15550,7 @@
       <c r="R12" s="2"/>
       <c r="S12" s="3"/>
       <c r="T12" s="66"/>
-      <c r="U12" s="80" t="s">
+      <c r="U12" s="72" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -15581,7 +15581,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="66"/>
-      <c r="U13" s="81"/>
+      <c r="U13" s="73"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -15610,7 +15610,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="66"/>
-      <c r="U14" s="81"/>
+      <c r="U14" s="73"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -15639,7 +15639,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="81"/>
+      <c r="U15" s="73"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -15668,7 +15668,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="82"/>
+      <c r="U16" s="74"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -17384,6 +17384,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -17395,13 +17402,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -17445,41 +17445,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="73"/>
-      <c r="B1" s="73"/>
-      <c r="C1" s="73"/>
-      <c r="D1" s="73"/>
-      <c r="E1" s="73"/>
-      <c r="F1" s="73"/>
-      <c r="G1" s="73"/>
-      <c r="H1" s="73"/>
-      <c r="I1" s="73"/>
-      <c r="J1" s="73"/>
-      <c r="K1" s="73"/>
-      <c r="L1" s="73"/>
-      <c r="M1" s="73"/>
-      <c r="N1" s="73"/>
-      <c r="O1" s="73"/>
-      <c r="P1" s="73"/>
-      <c r="Q1" s="73"/>
-      <c r="R1" s="73"/>
-      <c r="S1" s="73"/>
-      <c r="T1" s="73"/>
-      <c r="U1" s="73"/>
-      <c r="V1" s="73"/>
+      <c r="A1" s="81"/>
+      <c r="B1" s="81"/>
+      <c r="C1" s="81"/>
+      <c r="D1" s="81"/>
+      <c r="E1" s="81"/>
+      <c r="F1" s="81"/>
+      <c r="G1" s="81"/>
+      <c r="H1" s="81"/>
+      <c r="I1" s="81"/>
+      <c r="J1" s="81"/>
+      <c r="K1" s="81"/>
+      <c r="L1" s="81"/>
+      <c r="M1" s="81"/>
+      <c r="N1" s="81"/>
+      <c r="O1" s="81"/>
+      <c r="P1" s="81"/>
+      <c r="Q1" s="81"/>
+      <c r="R1" s="81"/>
+      <c r="S1" s="81"/>
+      <c r="T1" s="81"/>
+      <c r="U1" s="81"/>
+      <c r="V1" s="81"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="74" t="s">
+      <c r="A2" s="82" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="75"/>
-      <c r="C2" s="75"/>
-      <c r="D2" s="75"/>
-      <c r="E2" s="76" t="s">
+      <c r="B2" s="83"/>
+      <c r="C2" s="83"/>
+      <c r="D2" s="83"/>
+      <c r="E2" s="84" t="s">
         <v>63</v>
       </c>
-      <c r="F2" s="76"/>
+      <c r="F2" s="84"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="20"/>
@@ -17524,58 +17524,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="77" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="72" t="s">
+      <c r="A4" s="85" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="80" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="72"/>
-      <c r="D4" s="72"/>
-      <c r="E4" s="72"/>
-      <c r="F4" s="72"/>
-      <c r="G4" s="72"/>
-      <c r="H4" s="72"/>
-      <c r="I4" s="72"/>
-      <c r="J4" s="72" t="s">
+      <c r="C4" s="80"/>
+      <c r="D4" s="80"/>
+      <c r="E4" s="80"/>
+      <c r="F4" s="80"/>
+      <c r="G4" s="80"/>
+      <c r="H4" s="80"/>
+      <c r="I4" s="80"/>
+      <c r="J4" s="80" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="72" t="s">
+      <c r="K4" s="80" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="72"/>
-      <c r="M4" s="78" t="s">
+      <c r="L4" s="80"/>
+      <c r="M4" s="77" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="78" t="s">
+      <c r="N4" s="77" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="72" t="s">
+      <c r="O4" s="80" t="s">
         <v>7</v>
       </c>
       <c r="P4" s="86" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="72" t="s">
+      <c r="Q4" s="80" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="72" t="s">
+      <c r="R4" s="80" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="85" t="s">
+      <c r="S4" s="79" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="72" t="s">
+      <c r="U4" s="80" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="72" t="s">
+      <c r="V4" s="80" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="77"/>
+      <c r="A5" s="85"/>
       <c r="B5" s="41" t="s">
         <v>1</v>
       </c>
@@ -17600,23 +17600,23 @@
       <c r="I5" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="72"/>
+      <c r="J5" s="80"/>
       <c r="K5" s="41" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="79"/>
-      <c r="N5" s="79"/>
-      <c r="O5" s="72"/>
+      <c r="M5" s="78"/>
+      <c r="N5" s="78"/>
+      <c r="O5" s="80"/>
       <c r="P5" s="86"/>
-      <c r="Q5" s="72"/>
-      <c r="R5" s="72"/>
-      <c r="S5" s="85"/>
+      <c r="Q5" s="80"/>
+      <c r="R5" s="80"/>
+      <c r="S5" s="79"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="72"/>
-      <c r="V5" s="72"/>
+      <c r="U5" s="80"/>
+      <c r="V5" s="80"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -17642,7 +17642,7 @@
       <c r="R6" s="37"/>
       <c r="S6" s="3"/>
       <c r="T6" s="40"/>
-      <c r="U6" s="80" t="s">
+      <c r="U6" s="72" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -17673,7 +17673,7 @@
       <c r="R7" s="37"/>
       <c r="S7" s="3"/>
       <c r="T7" s="40"/>
-      <c r="U7" s="81"/>
+      <c r="U7" s="73"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -17702,7 +17702,7 @@
       <c r="R8" s="37"/>
       <c r="S8" s="3"/>
       <c r="T8" s="40"/>
-      <c r="U8" s="81"/>
+      <c r="U8" s="73"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -17731,7 +17731,7 @@
       <c r="R9" s="37"/>
       <c r="S9" s="3"/>
       <c r="T9" s="40"/>
-      <c r="U9" s="81"/>
+      <c r="U9" s="73"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -17760,7 +17760,7 @@
       <c r="R10" s="37"/>
       <c r="S10" s="3"/>
       <c r="T10" s="40"/>
-      <c r="U10" s="81"/>
+      <c r="U10" s="73"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -17789,7 +17789,7 @@
       <c r="R11" s="37"/>
       <c r="S11" s="3"/>
       <c r="T11" s="40"/>
-      <c r="U11" s="81"/>
+      <c r="U11" s="73"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -17818,7 +17818,7 @@
       <c r="R12" s="37"/>
       <c r="S12" s="3"/>
       <c r="T12" s="40"/>
-      <c r="U12" s="80" t="s">
+      <c r="U12" s="72" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -17849,7 +17849,7 @@
       <c r="R13" s="9"/>
       <c r="S13" s="3"/>
       <c r="T13" s="40"/>
-      <c r="U13" s="81"/>
+      <c r="U13" s="73"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -17878,7 +17878,7 @@
       <c r="R14" s="37"/>
       <c r="S14" s="3"/>
       <c r="T14" s="40"/>
-      <c r="U14" s="81"/>
+      <c r="U14" s="73"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -17907,7 +17907,7 @@
       <c r="R15" s="37"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="81"/>
+      <c r="U15" s="73"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -17936,7 +17936,7 @@
       <c r="R16" s="37"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="82"/>
+      <c r="U16" s="74"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -19167,13 +19167,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -19185,6 +19178,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
